--- a/biopsy.xlsx
+++ b/biopsy.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{74C12879-A511-43FE-982A-1FA8BC9D2C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FAE5CDC-F292-4AE7-91F7-20C48E3404F5}"/>
+    <workbookView xWindow="4800" yWindow="1260" windowWidth="14400" windowHeight="7350" xr2:uid="{2FAE5CDC-F292-4AE7-91F7-20C48E3404F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7311,7 +7311,7 @@
   <dimension ref="A1:B2299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2299"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
